--- a/excel_docs/S.xlsx
+++ b/excel_docs/S.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -949,6 +949,71 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>05.08.4611</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Юрій Шкиль</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Київ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0508461127</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>6586790@gmail.com</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>05.03.4816</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Максим Пономаренко</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Київ</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0503481633</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>doc_max@icloud.com</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
